--- a/config_12.08/permission_server_config.xlsx
+++ b/config_12.08/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="1966">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9215,7 +9215,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9330,6 +9330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -9359,7 +9365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9656,6 +9662,12 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9937,7 +9949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A433" sqref="A433"/>
+      <selection pane="bottomLeft" activeCell="A429" sqref="A429:C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25901,13 +25913,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I872"/>
+  <dimension ref="A1:I875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C841" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D871" sqref="D871"/>
+      <selection pane="bottomRight" activeCell="A870" sqref="A870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45699,188 +45711,188 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="858" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="8">
+    <row r="858" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A858" s="110">
         <v>857</v>
       </c>
-      <c r="B858" s="14">
+      <c r="B858" s="110">
         <v>342</v>
       </c>
-      <c r="C858" s="15" t="s">
+      <c r="C858" s="111" t="s">
         <v>1045</v>
       </c>
-      <c r="D858" s="15" t="s">
+      <c r="D858" s="111" t="s">
         <v>1953</v>
       </c>
-      <c r="E858" s="14">
-        <v>2</v>
-      </c>
-      <c r="F858" s="14">
-        <v>1</v>
-      </c>
-      <c r="G858" s="15" t="s">
+      <c r="E858" s="110">
+        <v>2</v>
+      </c>
+      <c r="F858" s="110">
+        <v>1</v>
+      </c>
+      <c r="G858" s="111" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A859" s="8">
+    <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A859" s="110">
         <v>858</v>
       </c>
-      <c r="B859" s="14">
+      <c r="B859" s="110">
         <v>342</v>
       </c>
-      <c r="C859" s="10" t="s">
+      <c r="C859" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D859" s="110">
+        <v>1</v>
+      </c>
+      <c r="E859" s="110">
+        <v>3</v>
+      </c>
+      <c r="F859" s="110">
+        <v>1</v>
+      </c>
+      <c r="G859" s="111" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A860" s="110">
+        <v>859</v>
+      </c>
+      <c r="B860" s="110">
+        <v>342</v>
+      </c>
+      <c r="C860" s="111" t="s">
         <v>1045</v>
       </c>
-      <c r="D859" s="10" t="s">
+      <c r="D860" s="111" t="s">
         <v>1950</v>
       </c>
-      <c r="E859" s="8">
-        <v>2</v>
-      </c>
-      <c r="F859" s="8">
-        <v>2</v>
-      </c>
-      <c r="G859" s="10" t="s">
+      <c r="E860" s="110">
+        <v>2</v>
+      </c>
+      <c r="F860" s="110">
+        <v>2</v>
+      </c>
+      <c r="G860" s="111" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A860" s="8">
-        <v>859</v>
-      </c>
-      <c r="B860" s="14">
+    <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="110">
+        <v>860</v>
+      </c>
+      <c r="B861" s="110">
         <v>342</v>
       </c>
-      <c r="C860" s="10" t="s">
+      <c r="C861" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D861" s="110">
+        <v>1</v>
+      </c>
+      <c r="E861" s="110">
+        <v>3</v>
+      </c>
+      <c r="F861" s="110">
+        <v>2</v>
+      </c>
+      <c r="G861" s="111" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="110">
+        <v>861</v>
+      </c>
+      <c r="B862" s="110">
+        <v>342</v>
+      </c>
+      <c r="C862" s="111" t="s">
         <v>1045</v>
       </c>
-      <c r="D860" s="10" t="s">
+      <c r="D862" s="111" t="s">
         <v>1951</v>
       </c>
-      <c r="E860" s="8">
-        <v>2</v>
-      </c>
-      <c r="F860" s="8">
+      <c r="E862" s="110">
+        <v>2</v>
+      </c>
+      <c r="F862" s="110">
         <v>3</v>
       </c>
-      <c r="G860" s="10" t="s">
+      <c r="G862" s="111" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="861" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="8">
-        <v>860</v>
-      </c>
-      <c r="B861" s="14">
+    <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="110">
+        <v>862</v>
+      </c>
+      <c r="B863" s="110">
         <v>342</v>
       </c>
-      <c r="C861" s="14" t="s">
+      <c r="C863" s="110" t="s">
+        <v>878</v>
+      </c>
+      <c r="D863" s="110">
+        <v>1</v>
+      </c>
+      <c r="E863" s="110">
+        <v>3</v>
+      </c>
+      <c r="F863" s="110">
+        <v>3</v>
+      </c>
+      <c r="G863" s="111" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A864" s="110">
+        <v>863</v>
+      </c>
+      <c r="B864" s="110">
+        <v>342</v>
+      </c>
+      <c r="C864" s="110" t="s">
         <v>1045</v>
       </c>
-      <c r="D861" s="14" t="s">
+      <c r="D864" s="110" t="s">
         <v>1940</v>
       </c>
-      <c r="E861" s="14">
-        <v>2</v>
-      </c>
-      <c r="F861" s="14">
+      <c r="E864" s="110">
+        <v>2</v>
+      </c>
+      <c r="F864" s="110">
         <v>4</v>
       </c>
-      <c r="G861" s="15" t="s">
+      <c r="G864" s="111" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A862" s="8">
-        <v>861</v>
-      </c>
-      <c r="B862" s="9">
+    <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="110">
+        <v>864</v>
+      </c>
+      <c r="B865" s="110">
         <v>342</v>
       </c>
-      <c r="C862" s="9" t="s">
+      <c r="C865" s="110" t="s">
         <v>878</v>
       </c>
-      <c r="D862" s="9">
-        <v>1</v>
-      </c>
-      <c r="E862" s="9">
+      <c r="D865" s="110">
+        <v>1</v>
+      </c>
+      <c r="E865" s="110">
         <v>3</v>
       </c>
-      <c r="F862" s="9">
+      <c r="F865" s="110">
         <v>4</v>
       </c>
-      <c r="G862" s="53" t="s">
+      <c r="G865" s="111" t="s">
         <v>1955</v>
-      </c>
-    </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A863" s="8">
-        <v>862</v>
-      </c>
-      <c r="B863" s="9">
-        <v>343</v>
-      </c>
-      <c r="C863" s="53" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D863" s="9">
-        <v>1</v>
-      </c>
-      <c r="E863" s="9">
-        <v>3</v>
-      </c>
-      <c r="F863" s="9">
-        <v>1</v>
-      </c>
-      <c r="G863" s="10" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A864" s="8">
-        <v>863</v>
-      </c>
-      <c r="B864" s="9">
-        <v>343</v>
-      </c>
-      <c r="C864" s="10" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D864" s="15" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E864" s="8">
-        <v>5</v>
-      </c>
-      <c r="F864" s="8">
-        <v>1</v>
-      </c>
-      <c r="G864" s="10" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A865" s="8">
-        <v>864</v>
-      </c>
-      <c r="B865" s="9">
-        <v>343</v>
-      </c>
-      <c r="C865" s="53" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D865" s="9">
-        <v>9</v>
-      </c>
-      <c r="E865" s="9">
-        <v>3</v>
-      </c>
-      <c r="F865" s="9">
-        <v>2</v>
-      </c>
-      <c r="G865" s="10" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.2">
@@ -45890,66 +45902,66 @@
       <c r="B866" s="9">
         <v>343</v>
       </c>
-      <c r="C866" s="10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D866" s="15" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E866" s="8">
-        <v>5</v>
-      </c>
-      <c r="F866" s="8">
-        <v>2</v>
+      <c r="C866" s="53" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D866" s="9">
+        <v>1</v>
+      </c>
+      <c r="E866" s="9">
+        <v>3</v>
+      </c>
+      <c r="F866" s="9">
+        <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867" s="8">
         <v>866</v>
       </c>
-      <c r="B867" s="14">
+      <c r="B867" s="9">
         <v>343</v>
       </c>
-      <c r="C867" s="15" t="s">
-        <v>1174</v>
+      <c r="C867" s="10" t="s">
+        <v>1939</v>
       </c>
       <c r="D867" s="15" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E867" s="14">
-        <v>2</v>
-      </c>
-      <c r="F867" s="14">
-        <v>3</v>
-      </c>
-      <c r="G867" s="15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E867" s="8">
+        <v>5</v>
+      </c>
+      <c r="F867" s="8">
+        <v>1</v>
+      </c>
+      <c r="G867" s="10" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="868" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868" s="8">
         <v>867</v>
       </c>
-      <c r="B868" s="14">
+      <c r="B868" s="9">
         <v>343</v>
       </c>
-      <c r="C868" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D868" s="15" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E868" s="14">
-        <v>2</v>
-      </c>
-      <c r="F868" s="14">
-        <v>4</v>
-      </c>
-      <c r="G868" s="15" t="s">
-        <v>1949</v>
+      <c r="C868" s="53" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D868" s="9">
+        <v>9</v>
+      </c>
+      <c r="E868" s="9">
+        <v>3</v>
+      </c>
+      <c r="F868" s="9">
+        <v>2</v>
+      </c>
+      <c r="G868" s="10" t="s">
+        <v>1958</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -45957,68 +45969,68 @@
         <v>868</v>
       </c>
       <c r="B869" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1939</v>
+        <v>1174</v>
       </c>
       <c r="D869" s="15" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="E869" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F869" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A870" s="8">
         <v>869</v>
       </c>
-      <c r="B870" s="9">
-        <v>344</v>
-      </c>
-      <c r="C870" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="D870" s="10">
-        <v>600</v>
-      </c>
-      <c r="E870" s="8">
+      <c r="B870" s="14">
+        <v>343</v>
+      </c>
+      <c r="C870" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D870" s="15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E870" s="14">
+        <v>2</v>
+      </c>
+      <c r="F870" s="14">
         <v>3</v>
       </c>
-      <c r="F870" s="8">
-        <v>1</v>
-      </c>
-      <c r="G870" s="10" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G870" s="15" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A871" s="8">
         <v>870</v>
       </c>
-      <c r="B871" s="9">
-        <v>345</v>
-      </c>
-      <c r="C871" s="10" t="s">
-        <v>1939</v>
+      <c r="B871" s="14">
+        <v>343</v>
+      </c>
+      <c r="C871" s="15" t="s">
+        <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E871" s="8">
-        <v>2</v>
-      </c>
-      <c r="F871" s="8">
-        <v>1</v>
-      </c>
-      <c r="G871" s="10" t="s">
-        <v>1539</v>
+        <v>1940</v>
+      </c>
+      <c r="E871" s="14">
+        <v>2</v>
+      </c>
+      <c r="F871" s="14">
+        <v>4</v>
+      </c>
+      <c r="G871" s="15" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.2">
@@ -46026,21 +46038,90 @@
         <v>871</v>
       </c>
       <c r="B872" s="9">
+        <v>344</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D872" s="15" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E872" s="8">
+        <v>2</v>
+      </c>
+      <c r="F872" s="8">
+        <v>1</v>
+      </c>
+      <c r="G872" s="10" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A873" s="8">
+        <v>872</v>
+      </c>
+      <c r="B873" s="9">
+        <v>344</v>
+      </c>
+      <c r="C873" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D873" s="10">
+        <v>600</v>
+      </c>
+      <c r="E873" s="8">
+        <v>3</v>
+      </c>
+      <c r="F873" s="8">
+        <v>1</v>
+      </c>
+      <c r="G873" s="10" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A874" s="8">
+        <v>873</v>
+      </c>
+      <c r="B874" s="9">
         <v>345</v>
       </c>
-      <c r="C872" s="8" t="s">
+      <c r="C874" s="10" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D874" s="15" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E874" s="8">
+        <v>2</v>
+      </c>
+      <c r="F874" s="8">
+        <v>1</v>
+      </c>
+      <c r="G874" s="10" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A875" s="8">
+        <v>874</v>
+      </c>
+      <c r="B875" s="9">
+        <v>345</v>
+      </c>
+      <c r="C875" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="D872" s="10">
+      <c r="D875" s="10">
         <v>600</v>
       </c>
-      <c r="E872" s="8">
+      <c r="E875" s="8">
         <v>3</v>
       </c>
-      <c r="F872" s="8">
-        <v>1</v>
-      </c>
-      <c r="G872" s="10" t="s">
+      <c r="F875" s="8">
+        <v>1</v>
+      </c>
+      <c r="G875" s="10" t="s">
         <v>1964</v>
       </c>
     </row>

--- a/config_12.08/permission_server_config.xlsx
+++ b/config_12.08/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="1977">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -7337,10 +7337,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>推广系统（官方渠道才显示）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8728,21 +8724,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cjj</t>
-  </si>
-  <si>
     <t>3D捕鱼冲金鸡平台</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8755,10 +8740,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8830,10 +8811,6 @@
   </si>
   <si>
     <t>now</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -8992,143 +8969,235 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>cjj_cqg_viplimit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>存钱罐VIP1限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月30日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行领取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1及以上的用户可进行领取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_recharge_shovel_value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_recharge_above</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl_recharge_above</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐天天捕鱼充值6元以上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台CPL充值6元以上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>该档次需要充值6元以上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj_cqg_viplimit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>存钱罐VIP1限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年11月30日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>签到权限-只有欢乐捕鱼和冲金鸡官方渠道展示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
   </si>
   <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是官方渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1及以上的用户可进行领取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是cpl玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>player_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是cpl玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是CPl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1及以上的用户可进行领取</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv9开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_recharge_shovel_value</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_recharge_above</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl_recharge_above</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐天天捕鱼充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡平台CPL充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>该档次需要充值6元以上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
+    <t>tag_plat_wqp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3D捕鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPL</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3D捕鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPS</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_limit</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9945,11 +10014,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q433"/>
+  <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A429" sqref="A429:C429"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11136,7 +11205,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -11154,7 +11223,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11172,7 +11241,7 @@
         <v>135</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -11190,7 +11259,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -11208,7 +11277,7 @@
         <v>137</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C74" s="57">
         <v>22</v>
@@ -11222,7 +11291,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C75" s="57">
         <v>22</v>
@@ -11237,7 +11306,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C76" s="57">
         <v>22</v>
@@ -11252,7 +11321,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C77" s="57">
         <v>23</v>
@@ -11267,7 +11336,7 @@
         <v>141</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C78" s="9">
         <v>23</v>
@@ -11282,7 +11351,7 @@
         <v>142</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C79" s="9">
         <v>24</v>
@@ -11297,7 +11366,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="53" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C80" s="9">
         <v>25</v>
@@ -11312,7 +11381,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="9">
         <v>26</v>
@@ -11327,7 +11396,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12307,7 +12376,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12522,7 +12591,7 @@
     </row>
     <row r="202" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="64" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>332</v>
@@ -13876,7 +13945,7 @@
         <v>1391</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="C353" s="3">
         <v>226</v>
@@ -13939,10 +14008,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="27" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B359" s="27" t="s">
         <v>1859</v>
-      </c>
-      <c r="B359" s="27" t="s">
-        <v>1860</v>
       </c>
       <c r="C359" s="3">
         <v>8</v>
@@ -13950,10 +14019,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="27" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="C360" s="3">
         <v>343</v>
@@ -13972,10 +14041,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="27" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B364" s="34" t="s">
         <v>1820</v>
-      </c>
-      <c r="B364" s="34" t="s">
-        <v>1821</v>
       </c>
       <c r="C364" s="3">
         <v>332</v>
@@ -13986,7 +14055,7 @@
         <v>1473</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C365" s="3">
         <v>242</v>
@@ -14008,7 +14077,7 @@
         <v>1469</v>
       </c>
       <c r="B367" s="27" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C367" s="3">
         <v>244</v>
@@ -14019,7 +14088,7 @@
         <v>1507</v>
       </c>
       <c r="B370" s="27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C370" s="3">
         <v>248</v>
@@ -14027,7 +14096,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="27" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B372" s="27" t="s">
         <v>1531</v>
@@ -14074,7 +14143,7 @@
         <v>1620</v>
       </c>
       <c r="B379" s="27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C379" s="3">
         <v>287</v>
@@ -14082,10 +14151,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="27" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C381" s="3">
         <v>292</v>
@@ -14093,10 +14162,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="27" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C383" s="3">
         <v>319</v>
@@ -14104,10 +14173,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="27" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C385" s="3">
         <v>326</v>
@@ -14115,10 +14184,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="27" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C387" s="3">
         <v>327</v>
@@ -14126,10 +14195,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C389" s="3">
         <v>328</v>
@@ -14137,10 +14206,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="27" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B391" s="27" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C391" s="3">
         <v>319</v>
@@ -14148,10 +14217,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C393" s="8">
         <v>127</v>
@@ -14159,10 +14228,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C394" s="8">
         <v>128</v>
@@ -14170,10 +14239,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C395" s="8">
         <v>129</v>
@@ -14181,10 +14250,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C396" s="8">
         <v>130</v>
@@ -14192,10 +14261,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C397" s="8">
         <v>131</v>
@@ -14203,10 +14272,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C398" s="8">
         <v>132</v>
@@ -14214,10 +14283,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C399" s="8">
         <v>133</v>
@@ -14225,10 +14294,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C400" s="8">
         <v>134</v>
@@ -14236,10 +14305,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C401" s="8">
         <v>135</v>
@@ -14247,10 +14316,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1828</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1829</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14258,10 +14327,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1830</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1831</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14269,10 +14338,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1832</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1833</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14280,10 +14349,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B406" s="27" t="s">
         <v>1834</v>
-      </c>
-      <c r="B406" s="27" t="s">
-        <v>1835</v>
       </c>
       <c r="C406" s="3">
         <v>333</v>
@@ -14291,10 +14360,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1836</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1837</v>
       </c>
       <c r="C407" s="3">
         <v>333</v>
@@ -14302,10 +14371,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="27" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1843</v>
-      </c>
-      <c r="B409" s="27" t="s">
-        <v>1844</v>
       </c>
       <c r="C409" s="3">
         <v>91</v>
@@ -14313,10 +14382,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="27" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="B411" s="27" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="C411" s="3">
         <v>339</v>
@@ -14324,10 +14393,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="C413" s="3">
         <v>326</v>
@@ -14335,46 +14404,46 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="34" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="C416" s="9"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="C417" s="9"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="C418" s="9"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="C419" s="57">
         <v>22</v>
@@ -14382,10 +14451,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="C420" s="57">
         <v>22</v>
@@ -14393,10 +14462,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="C421" s="57">
         <v>22</v>
@@ -14404,10 +14473,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="C422" s="57">
         <v>23</v>
@@ -14415,10 +14484,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="C423" s="9">
         <v>23</v>
@@ -14426,10 +14495,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="C424" s="9">
         <v>24</v>
@@ -14437,10 +14506,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="C425" s="9">
         <v>25</v>
@@ -14448,10 +14517,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="18" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="C426" s="9">
         <v>26</v>
@@ -14459,10 +14528,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="18" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="C427" s="9">
         <v>26</v>
@@ -14470,10 +14539,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="C429" s="3">
         <v>342</v>
@@ -14481,10 +14550,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14492,13 +14561,24 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="27" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="C433" s="3">
         <v>345</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="27" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B435" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C435" s="3">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -14699,7 +14779,7 @@
         <v>1513</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -14855,7 +14935,7 @@
         <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1180</v>
@@ -20567,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>774</v>
@@ -21114,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>803</v>
@@ -23969,7 +24049,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1599</v>
@@ -24006,7 +24086,7 @@
         <v>1614</v>
       </c>
       <c r="D279" s="96" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E279" s="95"/>
       <c r="F279" s="95"/>
@@ -24173,10 +24253,10 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
@@ -24190,13 +24270,13 @@
         <v>1</v>
       </c>
       <c r="J284" s="16" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="K284" s="17">
         <v>1599521400</v>
       </c>
       <c r="L284" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="285" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24207,10 +24287,10 @@
         <v>1</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E285" s="17"/>
       <c r="F285" s="17"/>
@@ -24230,7 +24310,7 @@
         <v>1599494400</v>
       </c>
       <c r="L285" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="286" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24241,10 +24321,10 @@
         <v>1</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E286" s="17"/>
       <c r="F286" s="17"/>
@@ -24264,7 +24344,7 @@
         <v>1599523200</v>
       </c>
       <c r="L286" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="287" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24275,10 +24355,10 @@
         <v>1</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E287" s="17"/>
       <c r="F287" s="17"/>
@@ -24298,7 +24378,7 @@
         <v>1599523200</v>
       </c>
       <c r="L287" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="288" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24309,10 +24389,10 @@
         <v>1</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E288" s="17"/>
       <c r="F288" s="17"/>
@@ -24332,7 +24412,7 @@
         <v>1599494400</v>
       </c>
       <c r="L288" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="289" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24343,10 +24423,10 @@
         <v>1</v>
       </c>
       <c r="C289" s="78" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D289" s="78" t="s">
         <v>1659</v>
-      </c>
-      <c r="D289" s="78" t="s">
-        <v>1660</v>
       </c>
       <c r="E289" s="78"/>
       <c r="F289" s="78"/>
@@ -24360,13 +24440,13 @@
         <v>1</v>
       </c>
       <c r="J289" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K289" s="78">
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24377,10 +24457,10 @@
         <v>1</v>
       </c>
       <c r="C290" s="78" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D290" s="78" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E290" s="78"/>
       <c r="F290" s="78"/>
@@ -24394,13 +24474,13 @@
         <v>1</v>
       </c>
       <c r="J290" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K290" s="78">
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24411,10 +24491,10 @@
         <v>1</v>
       </c>
       <c r="C291" s="79" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D291" s="78" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
@@ -24428,13 +24508,13 @@
         <v>1</v>
       </c>
       <c r="J291" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K291" s="78">
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24445,10 +24525,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24462,13 +24542,13 @@
         <v>1</v>
       </c>
       <c r="J292" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K292" s="108">
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -24479,10 +24559,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G293" s="17">
         <v>298</v>
@@ -24511,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1601</v>
@@ -24543,7 +24623,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>1602</v>
@@ -24575,7 +24655,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>1603</v>
@@ -24607,7 +24687,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>1604</v>
@@ -24639,10 +24719,10 @@
         <v>1</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G298" s="17">
         <v>303</v>
@@ -24671,10 +24751,10 @@
         <v>1</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G299" s="17">
         <v>304</v>
@@ -24703,10 +24783,10 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G300" s="17">
         <v>305</v>
@@ -24735,10 +24815,10 @@
         <v>1</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G301" s="17">
         <v>306</v>
@@ -24767,10 +24847,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G302" s="17">
         <v>307</v>
@@ -24799,10 +24879,10 @@
         <v>1</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G303" s="17">
         <v>308</v>
@@ -24831,10 +24911,10 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D304" s="30" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G304" s="26">
         <v>309</v>
@@ -24863,10 +24943,10 @@
         <v>1</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D305" s="30" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G305" s="26">
         <v>310</v>
@@ -24895,10 +24975,10 @@
         <v>1</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G306" s="26">
         <v>311</v>
@@ -24927,7 +25007,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D307" s="16" t="s">
         <v>1602</v>
@@ -24959,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D308" s="16" t="s">
         <v>1603</v>
@@ -24991,7 +25071,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>1604</v>
@@ -25023,10 +25103,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="30" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D310" s="30" t="s">
         <v>1704</v>
-      </c>
-      <c r="D310" s="30" t="s">
-        <v>1705</v>
       </c>
       <c r="G310" s="26">
         <v>315</v>
@@ -25055,10 +25135,10 @@
         <v>1</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D311" s="30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G311" s="26">
         <v>316</v>
@@ -25087,10 +25167,10 @@
         <v>1</v>
       </c>
       <c r="C312" s="30" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D312" s="30" t="s">
         <v>1708</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>1709</v>
       </c>
       <c r="G312" s="26">
         <v>317</v>
@@ -25119,10 +25199,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D313" s="30" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G313" s="26">
         <v>318</v>
@@ -25151,10 +25231,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="30" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D314" s="30" t="s">
         <v>1714</v>
-      </c>
-      <c r="D314" s="30" t="s">
-        <v>1715</v>
       </c>
       <c r="G314" s="26">
         <v>319</v>
@@ -25183,10 +25263,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D315" s="30" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G315" s="26">
         <v>320</v>
@@ -25215,10 +25295,10 @@
         <v>1</v>
       </c>
       <c r="C316" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D316" s="16" t="s">
         <v>1735</v>
-      </c>
-      <c r="D316" s="16" t="s">
-        <v>1736</v>
       </c>
       <c r="E316" s="17"/>
       <c r="F316" s="17"/>
@@ -25238,7 +25318,7 @@
         <v>1600731000</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -25249,10 +25329,10 @@
         <v>1</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D317" s="30" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G317" s="26">
         <v>322</v>
@@ -25270,7 +25350,7 @@
         <v>1601335800</v>
       </c>
       <c r="L317" s="30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -25281,10 +25361,10 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G318" s="26">
         <v>323</v>
@@ -25302,7 +25382,7 @@
         <v>1601335800</v>
       </c>
       <c r="L318" s="30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -25313,10 +25393,10 @@
         <v>1</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G319" s="26">
         <v>323</v>
@@ -25334,7 +25414,7 @@
         <v>1601335800</v>
       </c>
       <c r="L319" s="30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -25345,10 +25425,10 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G320" s="26">
         <v>324</v>
@@ -25377,10 +25457,10 @@
         <v>1</v>
       </c>
       <c r="C321" s="30" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D321" s="26" t="s">
         <v>1749</v>
-      </c>
-      <c r="D321" s="26" t="s">
-        <v>1750</v>
       </c>
       <c r="G321" s="26">
         <v>325</v>
@@ -25398,7 +25478,7 @@
         <v>1601335800</v>
       </c>
       <c r="L321" s="30" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -25409,10 +25489,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25430,7 +25510,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25441,10 +25521,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25462,7 +25542,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25473,10 +25553,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25505,10 +25585,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25537,10 +25617,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25558,7 +25638,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25569,10 +25649,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25590,7 +25670,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25601,10 +25681,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25633,10 +25713,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1846</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1847</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25665,10 +25745,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25680,7 +25760,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25697,10 +25777,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1849</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1850</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25729,10 +25809,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -25752,7 +25832,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -25763,10 +25843,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -25778,7 +25858,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25795,10 +25875,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25829,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -25852,7 +25932,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -25863,10 +25943,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -25886,7 +25966,7 @@
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -25913,13 +25993,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I875"/>
+  <dimension ref="A1:I879"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C841" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C860" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A870" sqref="A870"/>
+      <selection pane="bottomRight" activeCell="B877" sqref="B877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26503,7 +26583,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>1052</v>
@@ -28116,7 +28196,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>937</v>
+        <v>1971</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30048,7 +30128,7 @@
         <v>1045</v>
       </c>
       <c r="D178" s="94" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E178" s="14">
         <v>2</v>
@@ -30071,7 +30151,7 @@
         <v>1045</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30080,7 +30160,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30462,7 +30542,7 @@
         <v>1045</v>
       </c>
       <c r="D196" s="105" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E196" s="103">
         <v>2</v>
@@ -30485,7 +30565,7 @@
         <v>1045</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1864</v>
+        <v>1963</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -30494,7 +30574,7 @@
         <v>5</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -39724,7 +39804,7 @@
         <v>1168</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -39770,7 +39850,7 @@
         <v>1168</v>
       </c>
       <c r="D600" s="10" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="E600" s="8">
         <v>5</v>
@@ -39793,7 +39873,7 @@
         <v>1168</v>
       </c>
       <c r="D601" s="10" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="E601" s="14">
         <v>2</v>
@@ -39816,7 +39896,7 @@
         <v>1168</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -39862,7 +39942,7 @@
         <v>1168</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -39908,7 +39988,7 @@
         <v>1168</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E606" s="14">
         <v>5</v>
@@ -39931,7 +40011,7 @@
         <v>1168</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E607" s="14">
         <v>2</v>
@@ -39954,7 +40034,7 @@
         <v>1168</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -40000,7 +40080,7 @@
         <v>1168</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -40046,7 +40126,7 @@
         <v>1168</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E612" s="8">
         <v>5</v>
@@ -40069,7 +40149,7 @@
         <v>1168</v>
       </c>
       <c r="D613" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E613" s="14">
         <v>2</v>
@@ -40092,7 +40172,7 @@
         <v>1168</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -40138,7 +40218,7 @@
         <v>1168</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -40184,7 +40264,7 @@
         <v>1168</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E618" s="8">
         <v>5</v>
@@ -40207,7 +40287,7 @@
         <v>1168</v>
       </c>
       <c r="D619" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E619" s="14">
         <v>2</v>
@@ -40230,7 +40310,7 @@
         <v>1168</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -40276,7 +40356,7 @@
         <v>1168</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -40322,7 +40402,7 @@
         <v>1168</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E624" s="8">
         <v>5</v>
@@ -40345,7 +40425,7 @@
         <v>1168</v>
       </c>
       <c r="D625" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E625" s="14">
         <v>2</v>
@@ -40368,7 +40448,7 @@
         <v>1168</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -40414,7 +40494,7 @@
         <v>1168</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -40460,7 +40540,7 @@
         <v>1168</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E630" s="8">
         <v>5</v>
@@ -40483,7 +40563,7 @@
         <v>1168</v>
       </c>
       <c r="D631" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E631" s="14">
         <v>2</v>
@@ -40506,7 +40586,7 @@
         <v>1168</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1868</v>
+        <v>1963</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -41041,7 +41121,7 @@
         <v>1045</v>
       </c>
       <c r="D655" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E655" s="8">
         <v>2</v>
@@ -41050,7 +41130,7 @@
         <v>1</v>
       </c>
       <c r="G655" s="53" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
@@ -41501,7 +41581,7 @@
         <v>1168</v>
       </c>
       <c r="D675" s="10" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="E675" s="8">
         <v>2</v>
@@ -42154,7 +42234,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
@@ -42165,7 +42245,7 @@
         <v>282</v>
       </c>
       <c r="C704" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D704" s="10" t="s">
         <v>1605</v>
@@ -42375,7 +42455,7 @@
         <v>1627</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E713" s="8">
         <v>2</v>
@@ -42384,7 +42464,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="714" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42398,7 +42478,7 @@
         <v>1169</v>
       </c>
       <c r="D714" s="10" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E714" s="8">
         <v>5</v>
@@ -42407,7 +42487,7 @@
         <v>2</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
@@ -42441,10 +42521,10 @@
         <v>288</v>
       </c>
       <c r="C716" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D716" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D716" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E716" s="8">
         <v>5</v>
@@ -42453,7 +42533,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -42487,10 +42567,10 @@
         <v>288</v>
       </c>
       <c r="C718" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D718" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D718" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E718" s="8">
         <v>5</v>
@@ -42499,7 +42579,7 @@
         <v>2</v>
       </c>
       <c r="G718" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
@@ -42522,7 +42602,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
@@ -42556,7 +42636,7 @@
         <v>289</v>
       </c>
       <c r="C721" s="8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D721" s="10" t="s">
         <v>1605</v>
@@ -42568,7 +42648,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
@@ -42579,10 +42659,10 @@
         <v>289</v>
       </c>
       <c r="C722" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D722" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D722" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E722" s="8">
         <v>5</v>
@@ -42591,7 +42671,7 @@
         <v>1</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
@@ -42602,7 +42682,7 @@
         <v>290</v>
       </c>
       <c r="C723" s="8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D723" s="10" t="s">
         <v>1605</v>
@@ -42614,7 +42694,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
@@ -42637,7 +42717,7 @@
         <v>1</v>
       </c>
       <c r="G724" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
@@ -42660,7 +42740,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
@@ -42671,10 +42751,10 @@
         <v>290</v>
       </c>
       <c r="C726" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D726" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D726" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E726" s="8">
         <v>5</v>
@@ -42683,7 +42763,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
@@ -42740,7 +42820,7 @@
         <v>291</v>
       </c>
       <c r="C729" s="8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D729" s="10" t="s">
         <v>1605</v>
@@ -42752,7 +42832,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
@@ -42763,10 +42843,10 @@
         <v>291</v>
       </c>
       <c r="C730" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D730" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D730" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E730" s="8">
         <v>5</v>
@@ -42775,7 +42855,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="731" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -42789,7 +42869,7 @@
         <v>1168</v>
       </c>
       <c r="D731" s="10" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E731" s="8">
         <v>2</v>
@@ -42798,7 +42878,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="10" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
@@ -42821,7 +42901,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
@@ -42867,7 +42947,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="10" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
@@ -42878,10 +42958,10 @@
         <v>293</v>
       </c>
       <c r="C735" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D735" s="10" t="s">
         <v>1654</v>
-      </c>
-      <c r="D735" s="10" t="s">
-        <v>1655</v>
       </c>
       <c r="E735" s="8">
         <v>5</v>
@@ -42890,7 +42970,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -42913,7 +42993,7 @@
         <v>1</v>
       </c>
       <c r="G736" s="19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
@@ -42982,7 +43062,7 @@
         <v>1</v>
       </c>
       <c r="G739" s="19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
@@ -43005,7 +43085,7 @@
         <v>1</v>
       </c>
       <c r="G740" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
@@ -43028,7 +43108,7 @@
         <v>1</v>
       </c>
       <c r="G741" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
@@ -43051,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="G742" s="19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
@@ -43074,7 +43154,7 @@
         <v>1</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -43097,7 +43177,7 @@
         <v>1</v>
       </c>
       <c r="G744" s="19" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
@@ -43120,7 +43200,7 @@
         <v>1</v>
       </c>
       <c r="G745" s="19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
@@ -43281,7 +43361,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
@@ -43350,7 +43430,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="756" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43419,7 +43499,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
@@ -43433,7 +43513,7 @@
         <v>1065</v>
       </c>
       <c r="D759" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E759" s="8">
         <v>2</v>
@@ -43557,7 +43637,7 @@
         <v>1</v>
       </c>
       <c r="G764" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
@@ -43594,7 +43674,7 @@
         <v>1045</v>
       </c>
       <c r="D766" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E766" s="8">
         <v>2</v>
@@ -43603,7 +43683,7 @@
         <v>1</v>
       </c>
       <c r="G766" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
@@ -43640,7 +43720,7 @@
         <v>1045</v>
       </c>
       <c r="D768" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E768" s="8">
         <v>2</v>
@@ -43649,7 +43729,7 @@
         <v>2</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
@@ -43686,7 +43766,7 @@
         <v>1045</v>
       </c>
       <c r="D770" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E770" s="8">
         <v>2</v>
@@ -43695,7 +43775,7 @@
         <v>3</v>
       </c>
       <c r="G770" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
@@ -43755,7 +43835,7 @@
         <v>1045</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E773" s="8">
         <v>2</v>
@@ -43764,7 +43844,7 @@
         <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="774" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43787,7 +43867,7 @@
         <v>1</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
@@ -43847,7 +43927,7 @@
         <v>1045</v>
       </c>
       <c r="D777" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E777" s="8">
         <v>2</v>
@@ -43856,7 +43936,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="778" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -43879,7 +43959,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
@@ -43948,7 +44028,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
@@ -43962,7 +44042,7 @@
         <v>1045</v>
       </c>
       <c r="D782" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E782" s="8">
         <v>2</v>
@@ -43971,7 +44051,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
@@ -43985,7 +44065,7 @@
         <v>1045</v>
       </c>
       <c r="D783" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E783" s="8">
         <v>2</v>
@@ -43994,7 +44074,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
@@ -44008,7 +44088,7 @@
         <v>1045</v>
       </c>
       <c r="D784" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E784" s="8">
         <v>5</v>
@@ -44017,7 +44097,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
@@ -44031,7 +44111,7 @@
         <v>1065</v>
       </c>
       <c r="D785" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E785" s="8">
         <v>2</v>
@@ -44054,7 +44134,7 @@
         <v>1045</v>
       </c>
       <c r="D786" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E786" s="8">
         <v>5</v>
@@ -44063,7 +44143,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
@@ -44100,7 +44180,7 @@
         <v>1045</v>
       </c>
       <c r="D788" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E788" s="8">
         <v>5</v>
@@ -44109,7 +44189,7 @@
         <v>2</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
@@ -44146,7 +44226,7 @@
         <v>1045</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E790" s="8">
         <v>5</v>
@@ -44155,7 +44235,7 @@
         <v>3</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
@@ -44215,7 +44295,7 @@
         <v>1045</v>
       </c>
       <c r="D793" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E793" s="8">
         <v>5</v>
@@ -44224,7 +44304,7 @@
         <v>1</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44247,7 +44327,7 @@
         <v>1</v>
       </c>
       <c r="G794" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
@@ -44307,7 +44387,7 @@
         <v>1045</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E797" s="8">
         <v>5</v>
@@ -44316,7 +44396,7 @@
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="798" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44339,7 +44419,7 @@
         <v>1</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
@@ -44408,7 +44488,7 @@
         <v>1</v>
       </c>
       <c r="G801" s="15" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
@@ -44422,7 +44502,7 @@
         <v>1045</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E802" s="8">
         <v>5</v>
@@ -44431,7 +44511,7 @@
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
@@ -44445,7 +44525,7 @@
         <v>1045</v>
       </c>
       <c r="D803" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E803" s="8">
         <v>5</v>
@@ -44454,7 +44534,7 @@
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
@@ -44468,7 +44548,7 @@
         <v>1045</v>
       </c>
       <c r="D804" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E804" s="9">
         <v>2</v>
@@ -44477,7 +44557,7 @@
         <v>1</v>
       </c>
       <c r="G804" s="53" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
@@ -44491,7 +44571,7 @@
         <v>1045</v>
       </c>
       <c r="D805" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E805" s="8">
         <v>5</v>
@@ -44500,7 +44580,7 @@
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
@@ -44514,7 +44594,7 @@
         <v>1045</v>
       </c>
       <c r="D806" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E806" s="9">
         <v>2</v>
@@ -44523,7 +44603,7 @@
         <v>1</v>
       </c>
       <c r="G806" s="53" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
@@ -44537,7 +44617,7 @@
         <v>1045</v>
       </c>
       <c r="D807" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E807" s="8">
         <v>5</v>
@@ -44546,7 +44626,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
@@ -44560,7 +44640,7 @@
         <v>1045</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -44569,7 +44649,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="9" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -44583,7 +44663,7 @@
         <v>1045</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E809" s="9">
         <v>2</v>
@@ -44592,7 +44672,7 @@
         <v>1</v>
       </c>
       <c r="G809" s="53" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
@@ -44606,7 +44686,7 @@
         <v>1045</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E810" s="9">
         <v>5</v>
@@ -44615,7 +44695,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
@@ -44629,7 +44709,7 @@
         <v>1045</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -44638,7 +44718,7 @@
         <v>1</v>
       </c>
       <c r="G811" s="53" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
@@ -44675,7 +44755,7 @@
         <v>1045</v>
       </c>
       <c r="D813" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E813" s="9">
         <v>5</v>
@@ -44684,7 +44764,7 @@
         <v>1</v>
       </c>
       <c r="G813" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
@@ -44707,7 +44787,7 @@
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
@@ -44767,7 +44847,7 @@
         <v>1045</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E817" s="9">
         <v>5</v>
@@ -44776,7 +44856,7 @@
         <v>1</v>
       </c>
       <c r="G817" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44787,19 +44867,19 @@
         <v>324</v>
       </c>
       <c r="C818" s="10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D818" s="10" t="s">
         <v>1744</v>
       </c>
-      <c r="D818" s="10" t="s">
+      <c r="E818" s="8">
+        <v>2</v>
+      </c>
+      <c r="F818" s="8">
+        <v>1</v>
+      </c>
+      <c r="G818" s="10" t="s">
         <v>1745</v>
-      </c>
-      <c r="E818" s="8">
-        <v>2</v>
-      </c>
-      <c r="F818" s="8">
-        <v>1</v>
-      </c>
-      <c r="G818" s="10" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -44813,7 +44893,7 @@
         <v>1045</v>
       </c>
       <c r="D819" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E819" s="8">
         <v>5</v>
@@ -44822,7 +44902,7 @@
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
@@ -44836,7 +44916,7 @@
         <v>865</v>
       </c>
       <c r="D820" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E820" s="8">
         <v>2</v>
@@ -44859,7 +44939,7 @@
         <v>1045</v>
       </c>
       <c r="D821" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E821" s="8">
         <v>5</v>
@@ -44868,7 +44948,7 @@
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -44905,7 +44985,7 @@
         <v>1045</v>
       </c>
       <c r="D823" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E823" s="8">
         <v>5</v>
@@ -44914,7 +44994,7 @@
         <v>3</v>
       </c>
       <c r="G823" s="10" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -44928,7 +45008,7 @@
         <v>1045</v>
       </c>
       <c r="D824" s="10" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E824" s="9">
         <v>5</v>
@@ -44937,7 +45017,7 @@
         <v>1</v>
       </c>
       <c r="G824" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -44951,7 +45031,7 @@
         <v>1045</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -44960,7 +45040,7 @@
         <v>1</v>
       </c>
       <c r="G825" s="9" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="826" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -44974,7 +45054,7 @@
         <v>1045</v>
       </c>
       <c r="D826" s="15" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="E826" s="14">
         <v>2</v>
@@ -44983,7 +45063,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="15" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -44997,16 +45077,16 @@
         <v>1045</v>
       </c>
       <c r="D827" s="10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E827" s="8">
+        <v>2</v>
+      </c>
+      <c r="F827" s="8">
+        <v>2</v>
+      </c>
+      <c r="G827" s="10" t="s">
         <v>1825</v>
-      </c>
-      <c r="E827" s="8">
-        <v>2</v>
-      </c>
-      <c r="F827" s="8">
-        <v>2</v>
-      </c>
-      <c r="G827" s="10" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -45020,7 +45100,7 @@
         <v>1045</v>
       </c>
       <c r="D828" s="10" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E828" s="8">
         <v>2</v>
@@ -45029,7 +45109,7 @@
         <v>3</v>
       </c>
       <c r="G828" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -45040,10 +45120,10 @@
         <v>328</v>
       </c>
       <c r="C829" s="53" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -45052,7 +45132,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -45066,7 +45146,7 @@
         <v>1045</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45075,7 +45155,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45089,7 +45169,7 @@
         <v>897</v>
       </c>
       <c r="D831" s="9" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E831" s="9">
         <v>5</v>
@@ -45098,7 +45178,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="9" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45112,7 +45192,7 @@
         <v>1045</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45121,7 +45201,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45132,7 +45212,7 @@
         <v>330</v>
       </c>
       <c r="C833" s="53" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="D833" s="9">
         <v>1</v>
@@ -45144,7 +45224,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45155,7 +45235,7 @@
         <v>330</v>
       </c>
       <c r="C834" s="53" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="D834" s="9">
         <v>3</v>
@@ -45167,7 +45247,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="53" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45181,7 +45261,7 @@
         <v>1065</v>
       </c>
       <c r="D835" s="53" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -45190,7 +45270,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45204,7 +45284,7 @@
         <v>865</v>
       </c>
       <c r="D836" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -45213,7 +45293,7 @@
         <v>2</v>
       </c>
       <c r="G836" s="53" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -45236,7 +45316,7 @@
         <v>2</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -45259,7 +45339,7 @@
         <v>3</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -45273,7 +45353,7 @@
         <v>865</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="E839" s="9">
         <v>5</v>
@@ -45282,7 +45362,7 @@
         <v>3</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -45305,7 +45385,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -45328,7 +45408,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -45351,7 +45431,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="53" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -45374,7 +45454,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="53" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -45388,7 +45468,7 @@
         <v>1045</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -45397,7 +45477,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="53" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -45440,7 +45520,7 @@
         <v>1045</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45449,7 +45529,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="9" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -45492,7 +45572,7 @@
         <v>1045</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45501,7 +45581,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="9" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -45512,10 +45592,10 @@
         <v>336</v>
       </c>
       <c r="C849" s="98" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D849" s="99" t="s">
         <v>1857</v>
-      </c>
-      <c r="D849" s="99" t="s">
-        <v>1858</v>
       </c>
       <c r="E849" s="98">
         <v>5</v>
@@ -45524,7 +45604,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="99" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
@@ -45538,7 +45618,7 @@
         <v>1045</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1861</v>
+        <v>1963</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45547,7 +45627,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="9" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45561,7 +45641,7 @@
         <v>1045</v>
       </c>
       <c r="D851" s="107" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E851" s="106">
         <v>2</v>
@@ -45570,7 +45650,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="107" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45593,7 +45673,7 @@
         <v>1</v>
       </c>
       <c r="G852" s="107" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -45616,7 +45696,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="106" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45630,7 +45710,7 @@
         <v>1045</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1888</v>
+        <v>1963</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45639,7 +45719,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45650,10 +45730,10 @@
         <v>339</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="D855" s="10" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="E855" s="8">
         <v>2</v>
@@ -45662,7 +45742,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="10" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45676,7 +45756,7 @@
         <v>1174</v>
       </c>
       <c r="D856" s="10" t="s">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="E856" s="8">
         <v>5</v>
@@ -45685,7 +45765,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45699,7 +45779,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="E857" s="8">
         <v>2</v>
@@ -45708,7 +45788,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45722,7 +45802,7 @@
         <v>1045</v>
       </c>
       <c r="D858" s="111" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="E858" s="110">
         <v>2</v>
@@ -45731,7 +45811,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="111" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45754,7 +45834,7 @@
         <v>1</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45768,7 +45848,7 @@
         <v>1045</v>
       </c>
       <c r="D860" s="111" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="E860" s="110">
         <v>2</v>
@@ -45777,7 +45857,7 @@
         <v>2</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45800,7 +45880,7 @@
         <v>2</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45814,7 +45894,7 @@
         <v>1045</v>
       </c>
       <c r="D862" s="111" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="E862" s="110">
         <v>2</v>
@@ -45823,7 +45903,7 @@
         <v>3</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45846,7 +45926,7 @@
         <v>3</v>
       </c>
       <c r="G863" s="111" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45860,7 +45940,7 @@
         <v>1045</v>
       </c>
       <c r="D864" s="110" t="s">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="E864" s="110">
         <v>2</v>
@@ -45869,7 +45949,7 @@
         <v>4</v>
       </c>
       <c r="G864" s="111" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -45892,7 +45972,7 @@
         <v>4</v>
       </c>
       <c r="G865" s="111" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.2">
@@ -45903,7 +45983,7 @@
         <v>343</v>
       </c>
       <c r="C866" s="53" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="D866" s="9">
         <v>1</v>
@@ -45915,7 +45995,7 @@
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -45926,10 +46006,10 @@
         <v>343</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="D867" s="15" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="E867" s="8">
         <v>5</v>
@@ -45938,7 +46018,7 @@
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -45949,7 +46029,7 @@
         <v>343</v>
       </c>
       <c r="C868" s="53" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="D868" s="9">
         <v>9</v>
@@ -45961,7 +46041,7 @@
         <v>2</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -45975,7 +46055,7 @@
         <v>1174</v>
       </c>
       <c r="D869" s="15" t="s">
-        <v>1945</v>
+        <v>1968</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -45984,7 +46064,7 @@
         <v>2</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="870" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45998,7 +46078,7 @@
         <v>1174</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="E870" s="14">
         <v>2</v>
@@ -46007,7 +46087,7 @@
         <v>3</v>
       </c>
       <c r="G870" s="15" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46021,7 +46101,7 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1940</v>
+        <v>1963</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
@@ -46030,7 +46110,7 @@
         <v>4</v>
       </c>
       <c r="G871" s="15" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.2">
@@ -46041,10 +46121,10 @@
         <v>344</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
@@ -46076,7 +46156,7 @@
         <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.2">
@@ -46087,10 +46167,10 @@
         <v>345</v>
       </c>
       <c r="C874" s="10" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1863</v>
+        <v>1963</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -46122,7 +46202,99 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1964</v>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A876" s="9">
+        <v>875</v>
+      </c>
+      <c r="B876" s="9">
+        <v>346</v>
+      </c>
+      <c r="C876" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D876" s="15" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E876" s="8">
+        <v>2</v>
+      </c>
+      <c r="F876" s="8">
+        <v>1</v>
+      </c>
+      <c r="G876" s="10" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A877" s="9">
+        <v>876</v>
+      </c>
+      <c r="B877" s="9">
+        <v>346</v>
+      </c>
+      <c r="C877" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D877" s="9" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E877" s="9">
+        <v>2</v>
+      </c>
+      <c r="F877" s="9">
+        <v>2</v>
+      </c>
+      <c r="G877" s="53" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A878" s="9">
+        <v>877</v>
+      </c>
+      <c r="B878" s="9">
+        <v>346</v>
+      </c>
+      <c r="C878" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D878" s="53" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E878" s="9">
+        <v>2</v>
+      </c>
+      <c r="F878" s="9">
+        <v>3</v>
+      </c>
+      <c r="G878" s="53" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A879" s="9">
+        <v>878</v>
+      </c>
+      <c r="B879" s="9">
+        <v>346</v>
+      </c>
+      <c r="C879" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D879" s="53" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E879" s="9">
+        <v>2</v>
+      </c>
+      <c r="F879" s="9">
+        <v>4</v>
+      </c>
+      <c r="G879" s="53" t="s">
+        <v>1975</v>
       </c>
     </row>
   </sheetData>
@@ -46135,10 +46307,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46255,7 +46427,7 @@
         <v>897</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -46272,13 +46444,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -46295,10 +46467,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1628</v>
+        <v>1957</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1623</v>
@@ -46318,13 +46490,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -46333,7 +46505,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -46347,7 +46519,7 @@
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1931</v>
+        <v>1961</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -46356,7 +46528,53 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1862</v>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="93">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="93">
+        <v>10</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1860</v>
       </c>
     </row>
   </sheetData>
@@ -46449,7 +46667,7 @@
         <v>865</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_12.08/permission_server_config.xlsx
+++ b/config_12.08/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="1978">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9105,10 +9105,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"cjj",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9198,6 +9194,14 @@
   </si>
   <si>
     <t>signin_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10016,7 +10020,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q435"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
     </sheetView>
@@ -14572,10 +14576,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="27" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C435" s="3">
         <v>346</v>
@@ -25995,11 +25999,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I879"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C860" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C854" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B877" sqref="B877"/>
+      <selection pane="bottomRight" activeCell="D872" activeCellId="1" sqref="D874 D872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28196,7 +28200,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30151,7 +30155,7 @@
         <v>1045</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30565,7 +30569,7 @@
         <v>1045</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -39896,7 +39900,7 @@
         <v>1168</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E602" s="14">
         <v>2</v>
@@ -40034,7 +40038,7 @@
         <v>1168</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E608" s="14">
         <v>2</v>
@@ -40172,7 +40176,7 @@
         <v>1168</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E614" s="14">
         <v>2</v>
@@ -40310,7 +40314,7 @@
         <v>1168</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E620" s="14">
         <v>2</v>
@@ -40448,7 +40452,7 @@
         <v>1168</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E626" s="14">
         <v>2</v>
@@ -40586,7 +40590,7 @@
         <v>1168</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E632" s="14">
         <v>2</v>
@@ -44640,7 +44644,7 @@
         <v>1045</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -44709,7 +44713,7 @@
         <v>1045</v>
       </c>
       <c r="D811" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E811" s="9">
         <v>5</v>
@@ -45031,7 +45035,7 @@
         <v>1045</v>
       </c>
       <c r="D825" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E825" s="9">
         <v>2</v>
@@ -45146,7 +45150,7 @@
         <v>1045</v>
       </c>
       <c r="D830" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E830" s="9">
         <v>5</v>
@@ -45192,7 +45196,7 @@
         <v>1045</v>
       </c>
       <c r="D832" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45468,7 +45472,7 @@
         <v>1045</v>
       </c>
       <c r="D844" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E844" s="9">
         <v>5</v>
@@ -45520,7 +45524,7 @@
         <v>1045</v>
       </c>
       <c r="D846" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E846" s="9">
         <v>2</v>
@@ -45572,7 +45576,7 @@
         <v>1045</v>
       </c>
       <c r="D848" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E848" s="9">
         <v>2</v>
@@ -45618,7 +45622,7 @@
         <v>1045</v>
       </c>
       <c r="D850" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E850" s="9">
         <v>5</v>
@@ -45710,7 +45714,7 @@
         <v>1045</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45756,7 +45760,7 @@
         <v>1174</v>
       </c>
       <c r="D856" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E856" s="8">
         <v>5</v>
@@ -45779,7 +45783,7 @@
         <v>1174</v>
       </c>
       <c r="D857" s="10" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E857" s="8">
         <v>2</v>
@@ -45940,7 +45944,7 @@
         <v>1045</v>
       </c>
       <c r="D864" s="110" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E864" s="110">
         <v>2</v>
@@ -46055,7 +46059,7 @@
         <v>1174</v>
       </c>
       <c r="D869" s="15" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -46101,7 +46105,7 @@
         <v>1174</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E871" s="14">
         <v>2</v>
@@ -46113,95 +46117,95 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A872" s="8">
+    <row r="872" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="84">
         <v>871</v>
       </c>
-      <c r="B872" s="9">
+      <c r="B872" s="84">
         <v>344</v>
       </c>
-      <c r="C872" s="10" t="s">
+      <c r="C872" s="43" t="s">
         <v>1932</v>
       </c>
-      <c r="D872" s="15" t="s">
+      <c r="D872" s="43" t="s">
         <v>1934</v>
       </c>
-      <c r="E872" s="8">
-        <v>2</v>
-      </c>
-      <c r="F872" s="8">
-        <v>1</v>
-      </c>
-      <c r="G872" s="10" t="s">
+      <c r="E872" s="84">
+        <v>2</v>
+      </c>
+      <c r="F872" s="84">
+        <v>1</v>
+      </c>
+      <c r="G872" s="43" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A873" s="8">
+    <row r="873" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="84">
         <v>872</v>
       </c>
-      <c r="B873" s="9">
+      <c r="B873" s="84">
         <v>344</v>
       </c>
-      <c r="C873" s="8" t="s">
+      <c r="C873" s="84" t="s">
         <v>912</v>
       </c>
-      <c r="D873" s="10">
+      <c r="D873" s="43">
         <v>600</v>
       </c>
-      <c r="E873" s="8">
+      <c r="E873" s="84">
         <v>3</v>
       </c>
-      <c r="F873" s="8">
-        <v>1</v>
-      </c>
-      <c r="G873" s="10" t="s">
+      <c r="F873" s="84">
+        <v>1</v>
+      </c>
+      <c r="G873" s="43" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A874" s="8">
+    <row r="874" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="84">
         <v>873</v>
       </c>
-      <c r="B874" s="9">
+      <c r="B874" s="84">
         <v>345</v>
       </c>
-      <c r="C874" s="10" t="s">
+      <c r="C874" s="43" t="s">
         <v>1932</v>
       </c>
-      <c r="D874" s="15" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E874" s="8">
-        <v>2</v>
-      </c>
-      <c r="F874" s="8">
-        <v>1</v>
-      </c>
-      <c r="G874" s="10" t="s">
+      <c r="D874" s="43" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E874" s="84">
+        <v>2</v>
+      </c>
+      <c r="F874" s="84">
+        <v>1</v>
+      </c>
+      <c r="G874" s="43" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A875" s="8">
+    <row r="875" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="84">
         <v>874</v>
       </c>
-      <c r="B875" s="9">
+      <c r="B875" s="84">
         <v>345</v>
       </c>
-      <c r="C875" s="8" t="s">
+      <c r="C875" s="84" t="s">
         <v>912</v>
       </c>
-      <c r="D875" s="10">
+      <c r="D875" s="43">
         <v>600</v>
       </c>
-      <c r="E875" s="8">
+      <c r="E875" s="84">
         <v>3</v>
       </c>
-      <c r="F875" s="8">
-        <v>1</v>
-      </c>
-      <c r="G875" s="10" t="s">
+      <c r="F875" s="84">
+        <v>1</v>
+      </c>
+      <c r="G875" s="43" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -46216,7 +46220,7 @@
         <v>1168</v>
       </c>
       <c r="D876" s="15" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E876" s="8">
         <v>2</v>
@@ -46225,7 +46229,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.2">
@@ -46239,7 +46243,7 @@
         <v>1045</v>
       </c>
       <c r="D877" s="9" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E877" s="9">
         <v>2</v>
@@ -46248,7 +46252,7 @@
         <v>2</v>
       </c>
       <c r="G877" s="53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.2">
@@ -46262,7 +46266,7 @@
         <v>1045</v>
       </c>
       <c r="D878" s="53" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E878" s="9">
         <v>2</v>
@@ -46271,7 +46275,7 @@
         <v>3</v>
       </c>
       <c r="G878" s="53" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.2">
@@ -46285,7 +46289,7 @@
         <v>1045</v>
       </c>
       <c r="D879" s="53" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E879" s="9">
         <v>2</v>
@@ -46294,7 +46298,7 @@
         <v>4</v>
       </c>
       <c r="G879" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -46310,7 +46314,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46513,13 +46517,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -46536,13 +46540,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -46565,7 +46569,7 @@
         <v>897</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E11">
         <v>2</v>
